--- a/MOUNTC.0/production files/MOUNTC.0.BOM.xlsx
+++ b/MOUNTC.0/production files/MOUNTC.0.BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Product Name:</t>
   </si>
@@ -26,6 +26,9 @@
     <t>Tag:</t>
   </si>
   <si>
+    <t>MOUNTC.0.v1.0</t>
+  </si>
+  <si>
     <t>Product Number:</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t>Ponoko</t>
+  </si>
+  <si>
+    <t>See README for production details</t>
   </si>
 </sst>
 </file>
@@ -235,10 +241,10 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.37777777777778"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3703703703704"/>
@@ -264,7 +270,9 @@
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -276,17 +284,17 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="8" t="n">
-        <v>42131</v>
+        <v>42145</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -302,10 +310,10 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="8" t="n">
-        <v>42131</v>
+        <v>42145</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -347,28 +355,28 @@
     </row>
     <row r="6" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="3"/>
@@ -381,20 +389,26 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>42145</v>
+      </c>
       <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -420,10 +434,10 @@
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="0.996527777777778" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;"Arial,Regular"POSCON.BOM</oddHeader>
+    <oddHeader>&amp;L&amp;"Arial,Regular"MOUNTC.0.BOM</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Regular"	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>

--- a/MOUNTC.0/production files/MOUNTC.0.BOM.xlsx
+++ b/MOUNTC.0/production files/MOUNTC.0.BOM.xlsx
@@ -65,7 +65,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>90 Degree (vertical) mounting bracket, lasercut 5mm Delrin</t>
+    <t>0 Degree (horizontal) mounting bracket, lasercut 5mm Delrin</t>
   </si>
   <si>
     <t>Ponoko</t>
@@ -241,7 +241,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
